--- a/technical_analysis1/files/combine_top_10_rows_dataframe.xlsx
+++ b/technical_analysis1/files/combine_top_10_rows_dataframe.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:C1"/>
+  <dimension ref="A1:AC26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,8 +445,2363 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>USDCHF10080_class</t>
+          <t>USDCHF1440_class</t>
         </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>GBPUSD1440_class</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>EURUSD1440_class</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>USDJPY1440_class</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>USDCAD1440_class</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>AUDUSD1440_class</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>NZDUSD1440_class</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>GBPCHF1440_class</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>EURCHF1440_class</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>CHFJPY1440_class</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>CADCHF1440_class</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>AUDCHF1440_class</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>NZDCHF1440_class</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>EURGBP1440_class</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>GBPJPY1440_class</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>GBPCAD1440_class</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>GBPAUD1440_class</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>EURJPY1440_class</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>EURCAD1440_class</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>EURAUD1440_class</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>EURNZD1440_class</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>CADJPY1440_class</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>AUDJPY1440_class</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>NZDJPY1440_class</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>AUDCAD1440_class</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>NZDCAD1440_class</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>AUDNZD1440_class</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>39315</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-18</v>
+      </c>
+      <c r="G2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-18</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-20</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-24</v>
+      </c>
+      <c r="R2" t="n">
+        <v>8</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-18</v>
+      </c>
+      <c r="U2" t="n">
+        <v>30</v>
+      </c>
+      <c r="V2" t="n">
+        <v>30</v>
+      </c>
+      <c r="W2" t="n">
+        <v>9</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-24</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-24</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-24</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>39316</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25</v>
+      </c>
+      <c r="E3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F3" t="n">
+        <v>24</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" t="n">
+        <v>30</v>
+      </c>
+      <c r="K3" t="n">
+        <v>25</v>
+      </c>
+      <c r="L3" t="n">
+        <v>24</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>20</v>
+      </c>
+      <c r="O3" t="n">
+        <v>18</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>24</v>
+      </c>
+      <c r="R3" t="n">
+        <v>8</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-18</v>
+      </c>
+      <c r="T3" t="n">
+        <v>24</v>
+      </c>
+      <c r="U3" t="n">
+        <v>8</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-12</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-12</v>
+      </c>
+      <c r="X3" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>39317</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>36</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-24</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25</v>
+      </c>
+      <c r="I4" t="n">
+        <v>24</v>
+      </c>
+      <c r="J4" t="n">
+        <v>30</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12</v>
+      </c>
+      <c r="L4" t="n">
+        <v>36</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30</v>
+      </c>
+      <c r="N4" t="n">
+        <v>36</v>
+      </c>
+      <c r="O4" t="n">
+        <v>18</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-10</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>36</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-12</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-30</v>
+      </c>
+      <c r="T4" t="n">
+        <v>36</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-30</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-30</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-36</v>
+      </c>
+      <c r="X4" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>39318</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>25</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-12</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>12</v>
+      </c>
+      <c r="P5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-10</v>
+      </c>
+      <c r="T5" t="n">
+        <v>12</v>
+      </c>
+      <c r="U5" t="n">
+        <v>20</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="X5" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>39321</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-18</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-12</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-18</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-30</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-6</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-12</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-18</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-5</v>
+      </c>
+      <c r="W6" t="n">
+        <v>12</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-18</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-12</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-30</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>-20</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>39323</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>24</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>24</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10</v>
+      </c>
+      <c r="J7" t="n">
+        <v>36</v>
+      </c>
+      <c r="K7" t="n">
+        <v>16</v>
+      </c>
+      <c r="L7" t="n">
+        <v>24</v>
+      </c>
+      <c r="M7" t="n">
+        <v>18</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>8</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-12</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>24</v>
+      </c>
+      <c r="R7" t="n">
+        <v>12</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T7" t="n">
+        <v>24</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-4</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-12</v>
+      </c>
+      <c r="X7" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>39324</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-18</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-18</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-36</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-18</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-18</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-36</v>
+      </c>
+      <c r="M8" t="n">
+        <v>12</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-36</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-8</v>
+      </c>
+      <c r="S8" t="n">
+        <v>30</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-36</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-8</v>
+      </c>
+      <c r="V8" t="n">
+        <v>16</v>
+      </c>
+      <c r="W8" t="n">
+        <v>25</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-18</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-36</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-18</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-20</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>39325</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>18</v>
+      </c>
+      <c r="K9" t="n">
+        <v>15</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>9</v>
+      </c>
+      <c r="N9" t="n">
+        <v>12</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>24</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-8</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>39328</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>18</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>24</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>18</v>
+      </c>
+      <c r="M10" t="n">
+        <v>6</v>
+      </c>
+      <c r="N10" t="n">
+        <v>24</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>18</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-10</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-36</v>
+      </c>
+      <c r="T10" t="n">
+        <v>18</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-18</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-36</v>
+      </c>
+      <c r="W10" t="n">
+        <v>-30</v>
+      </c>
+      <c r="X10" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-6</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>39329</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-18</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6</v>
+      </c>
+      <c r="M11" t="n">
+        <v>12</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-12</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-24</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-24</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-15</v>
+      </c>
+      <c r="T11" t="n">
+        <v>6</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-12</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-16</v>
+      </c>
+      <c r="W11" t="n">
+        <v>24</v>
+      </c>
+      <c r="X11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-12</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-16</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>39330</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-12</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-24</v>
+      </c>
+      <c r="G12" t="n">
+        <v>12</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-20</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-16</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-12</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-18</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-30</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-15</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-30</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-18</v>
+      </c>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="n">
+        <v>12</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-18</v>
+      </c>
+      <c r="U12" t="n">
+        <v>25</v>
+      </c>
+      <c r="V12" t="n">
+        <v>10</v>
+      </c>
+      <c r="W12" t="n">
+        <v>36</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-24</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-18</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-30</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-9</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>39331</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>12</v>
+      </c>
+      <c r="F13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>12</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>18</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>12</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>18</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-18</v>
+      </c>
+      <c r="T13" t="n">
+        <v>18</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-15</v>
+      </c>
+      <c r="W13" t="n">
+        <v>-10</v>
+      </c>
+      <c r="X13" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>39332</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-24</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>16</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-30</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-30</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-20</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-24</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-24</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-36</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-30</v>
+      </c>
+      <c r="P14" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-24</v>
+      </c>
+      <c r="R14" t="n">
+        <v>12</v>
+      </c>
+      <c r="S14" t="n">
+        <v>18</v>
+      </c>
+      <c r="T14" t="n">
+        <v>-30</v>
+      </c>
+      <c r="U14" t="n">
+        <v>18</v>
+      </c>
+      <c r="V14" t="n">
+        <v>30</v>
+      </c>
+      <c r="W14" t="n">
+        <v>36</v>
+      </c>
+      <c r="X14" t="n">
+        <v>-30</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>-30</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>-30</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>39335</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>18</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>24</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>20</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>18</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="n">
+        <v>24</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>18</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-12</v>
+      </c>
+      <c r="X15" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-10</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>39336</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>18</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-25</v>
+      </c>
+      <c r="H16" t="n">
+        <v>16</v>
+      </c>
+      <c r="I16" t="n">
+        <v>15</v>
+      </c>
+      <c r="J16" t="n">
+        <v>30</v>
+      </c>
+      <c r="K16" t="n">
+        <v>24</v>
+      </c>
+      <c r="L16" t="n">
+        <v>12</v>
+      </c>
+      <c r="M16" t="n">
+        <v>36</v>
+      </c>
+      <c r="N16" t="n">
+        <v>24</v>
+      </c>
+      <c r="O16" t="n">
+        <v>24</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>18</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-30</v>
+      </c>
+      <c r="S16" t="n">
+        <v>-24</v>
+      </c>
+      <c r="T16" t="n">
+        <v>18</v>
+      </c>
+      <c r="U16" t="n">
+        <v>-30</v>
+      </c>
+      <c r="V16" t="n">
+        <v>-24</v>
+      </c>
+      <c r="W16" t="n">
+        <v>-24</v>
+      </c>
+      <c r="X16" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>39337</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-18</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>16</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-30</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>20</v>
+      </c>
+      <c r="I17" t="n">
+        <v>20</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-36</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>12</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>-30</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-18</v>
+      </c>
+      <c r="S17" t="n">
+        <v>-24</v>
+      </c>
+      <c r="T17" t="n">
+        <v>12</v>
+      </c>
+      <c r="U17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>-16</v>
+      </c>
+      <c r="W17" t="n">
+        <v>-15</v>
+      </c>
+      <c r="X17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>39338</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-18</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>30</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-12</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-12</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-6</v>
+      </c>
+      <c r="L18" t="n">
+        <v>24</v>
+      </c>
+      <c r="M18" t="n">
+        <v>10</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-6</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-6</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-30</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>24</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-24</v>
+      </c>
+      <c r="V18" t="n">
+        <v>12</v>
+      </c>
+      <c r="W18" t="n">
+        <v>3</v>
+      </c>
+      <c r="X18" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-6</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-20</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>39339</v>
+      </c>
+      <c r="C19" t="n">
+        <v>15</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-15</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>24</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-15</v>
+      </c>
+      <c r="H19" t="n">
+        <v>24</v>
+      </c>
+      <c r="I19" t="n">
+        <v>18</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>24</v>
+      </c>
+      <c r="L19" t="n">
+        <v>18</v>
+      </c>
+      <c r="M19" t="n">
+        <v>25</v>
+      </c>
+      <c r="N19" t="n">
+        <v>25</v>
+      </c>
+      <c r="O19" t="n">
+        <v>30</v>
+      </c>
+      <c r="P19" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>18</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-36</v>
+      </c>
+      <c r="S19" t="n">
+        <v>-36</v>
+      </c>
+      <c r="T19" t="n">
+        <v>36</v>
+      </c>
+      <c r="U19" t="n">
+        <v>-16</v>
+      </c>
+      <c r="V19" t="n">
+        <v>-36</v>
+      </c>
+      <c r="W19" t="n">
+        <v>-36</v>
+      </c>
+      <c r="X19" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>39342</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-24</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-36</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-10</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-12</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-36</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-18</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-12</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-20</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-16</v>
+      </c>
+      <c r="P20" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-36</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-30</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>-18</v>
+      </c>
+      <c r="U20" t="n">
+        <v>-12</v>
+      </c>
+      <c r="V20" t="n">
+        <v>18</v>
+      </c>
+      <c r="W20" t="n">
+        <v>24</v>
+      </c>
+      <c r="X20" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>-18</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>-18</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>-20</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>-16</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>39343</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-12</v>
+      </c>
+      <c r="D21" t="n">
+        <v>18</v>
+      </c>
+      <c r="E21" t="n">
+        <v>24</v>
+      </c>
+      <c r="F21" t="n">
+        <v>18</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>18</v>
+      </c>
+      <c r="I21" t="n">
+        <v>18</v>
+      </c>
+      <c r="J21" t="n">
+        <v>8</v>
+      </c>
+      <c r="K21" t="n">
+        <v>9</v>
+      </c>
+      <c r="L21" t="n">
+        <v>24</v>
+      </c>
+      <c r="M21" t="n">
+        <v>16</v>
+      </c>
+      <c r="N21" t="n">
+        <v>18</v>
+      </c>
+      <c r="O21" t="n">
+        <v>18</v>
+      </c>
+      <c r="P21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>18</v>
+      </c>
+      <c r="R21" t="n">
+        <v>-20</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-24</v>
+      </c>
+      <c r="T21" t="n">
+        <v>24</v>
+      </c>
+      <c r="U21" t="n">
+        <v>-16</v>
+      </c>
+      <c r="V21" t="n">
+        <v>-18</v>
+      </c>
+      <c r="W21" t="n">
+        <v>-18</v>
+      </c>
+      <c r="X21" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>39344</v>
+      </c>
+      <c r="C22" t="n">
+        <v>8</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-24</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-12</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-15</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-36</v>
+      </c>
+      <c r="M22" t="n">
+        <v>6</v>
+      </c>
+      <c r="N22" t="n">
+        <v>12</v>
+      </c>
+      <c r="O22" t="n">
+        <v>36</v>
+      </c>
+      <c r="P22" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>-30</v>
+      </c>
+      <c r="R22" t="n">
+        <v>-30</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-24</v>
+      </c>
+      <c r="T22" t="n">
+        <v>-18</v>
+      </c>
+      <c r="U22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>-15</v>
+      </c>
+      <c r="W22" t="n">
+        <v>-24</v>
+      </c>
+      <c r="X22" t="n">
+        <v>-12</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>39345</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-30</v>
+      </c>
+      <c r="D23" t="n">
+        <v>20</v>
+      </c>
+      <c r="E23" t="n">
+        <v>30</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-36</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-36</v>
+      </c>
+      <c r="H23" t="n">
+        <v>20</v>
+      </c>
+      <c r="I23" t="n">
+        <v>8</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-30</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-18</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-3</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-3</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-24</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-18</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-16</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-18</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-12</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-3</v>
+      </c>
+      <c r="W23" t="n">
+        <v>6</v>
+      </c>
+      <c r="X23" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-12</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>-18</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-6</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>-9</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>39346</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>25</v>
+      </c>
+      <c r="E24" t="n">
+        <v>6</v>
+      </c>
+      <c r="F24" t="n">
+        <v>30</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+      <c r="I24" t="n">
+        <v>24</v>
+      </c>
+      <c r="J24" t="n">
+        <v>18</v>
+      </c>
+      <c r="K24" t="n">
+        <v>12</v>
+      </c>
+      <c r="L24" t="n">
+        <v>30</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="n">
+        <v>18</v>
+      </c>
+      <c r="O24" t="n">
+        <v>8</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>36</v>
+      </c>
+      <c r="R24" t="n">
+        <v>10</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="n">
+        <v>30</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>-12</v>
+      </c>
+      <c r="W24" t="n">
+        <v>-20</v>
+      </c>
+      <c r="X24" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>39349</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-36</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-6</v>
+      </c>
+      <c r="I25" t="n">
+        <v>6</v>
+      </c>
+      <c r="J25" t="n">
+        <v>8</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-36</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-18</v>
+      </c>
+      <c r="R25" t="n">
+        <v>9</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="n">
+        <v>-36</v>
+      </c>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>-2</v>
+      </c>
+      <c r="W25" t="n">
+        <v>-12</v>
+      </c>
+      <c r="X25" t="n">
+        <v>-24</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>-36</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>-24</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>39350</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-12</v>
+      </c>
+      <c r="E26" t="n">
+        <v>12</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-36</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-12</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-36</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-10</v>
+      </c>
+      <c r="L26" t="n">
+        <v>12</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-30</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-20</v>
+      </c>
+      <c r="P26" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>-36</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>-18</v>
+      </c>
+      <c r="T26" t="n">
+        <v>6</v>
+      </c>
+      <c r="U26" t="n">
+        <v>30</v>
+      </c>
+      <c r="V26" t="n">
+        <v>-2</v>
+      </c>
+      <c r="W26" t="n">
+        <v>36</v>
+      </c>
+      <c r="X26" t="n">
+        <v>-36</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>-30</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/technical_analysis1/files/combine_top_10_rows_dataframe.xlsx
+++ b/technical_analysis1/files/combine_top_10_rows_dataframe.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -445,7 +445,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>EURUSD10080_class</t>
+          <t>USDJPY10080_class</t>
         </is>
       </c>
     </row>
@@ -457,7 +457,7 @@
         <v>25936</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         <v>25943</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -479,7 +479,7 @@
         <v>25950</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="5">
@@ -490,7 +490,7 @@
         <v>25957</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="6">
@@ -501,7 +501,7 @@
         <v>25964</v>
       </c>
       <c r="C6" t="n">
-        <v>-1</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="7">
@@ -512,7 +512,7 @@
         <v>25971</v>
       </c>
       <c r="C7" t="n">
-        <v>-3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         <v>25978</v>
       </c>
       <c r="C8" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -534,7 +534,7 @@
         <v>25985</v>
       </c>
       <c r="C9" t="n">
-        <v>-5</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="10">
@@ -545,7 +545,7 @@
         <v>25992</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="11">
@@ -556,7 +556,7 @@
         <v>25999</v>
       </c>
       <c r="C11" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -567,7 +567,7 @@
         <v>26006</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -578,7 +578,7 @@
         <v>26013</v>
       </c>
       <c r="C13" t="n">
-        <v>-6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -589,7 +589,7 @@
         <v>26020</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
@@ -600,7 +600,7 @@
         <v>26027</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="16">
@@ -611,7 +611,7 @@
         <v>26034</v>
       </c>
       <c r="C16" t="n">
-        <v>-4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
@@ -622,7 +622,7 @@
         <v>26041</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="18">
@@ -633,7 +633,7 @@
         <v>26048</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="19">
@@ -644,7 +644,7 @@
         <v>26055</v>
       </c>
       <c r="C19" t="n">
-        <v>24</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="20">
@@ -655,7 +655,7 @@
         <v>26062</v>
       </c>
       <c r="C20" t="n">
-        <v>-6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
@@ -666,7 +666,7 @@
         <v>26069</v>
       </c>
       <c r="C21" t="n">
-        <v>18</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="22">
@@ -677,7 +677,7 @@
         <v>26076</v>
       </c>
       <c r="C22" t="n">
-        <v>-18</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="23">
@@ -688,7 +688,7 @@
         <v>26083</v>
       </c>
       <c r="C23" t="n">
-        <v>18</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="24">
@@ -699,7 +699,7 @@
         <v>26090</v>
       </c>
       <c r="C24" t="n">
-        <v>12</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="25">
@@ -710,7 +710,7 @@
         <v>26097</v>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="26">
@@ -721,7 +721,7 @@
         <v>26104</v>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>-36</v>
       </c>
     </row>
   </sheetData>

--- a/technical_analysis1/files/combine_top_10_rows_dataframe.xlsx
+++ b/technical_analysis1/files/combine_top_10_rows_dataframe.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -445,7 +445,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>USDJPY10080_class</t>
+          <t>EURAUD10080_class</t>
         </is>
       </c>
     </row>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>25936</v>
+        <v>38151</v>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>25943</v>
+        <v>38158</v>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +476,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>25950</v>
+        <v>38165</v>
       </c>
       <c r="C4" t="n">
-        <v>-18</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="5">
@@ -487,10 +487,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>25957</v>
+        <v>38172</v>
       </c>
       <c r="C5" t="n">
-        <v>-4</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="6">
@@ -498,10 +498,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>25964</v>
+        <v>38179</v>
       </c>
       <c r="C6" t="n">
-        <v>-36</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="7">
@@ -509,10 +509,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>25971</v>
+        <v>38186</v>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -520,10 +520,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>25978</v>
+        <v>38193</v>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -531,10 +531,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>25985</v>
+        <v>38200</v>
       </c>
       <c r="C9" t="n">
-        <v>-36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -542,10 +542,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>25992</v>
+        <v>38207</v>
       </c>
       <c r="C10" t="n">
-        <v>-36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -553,10 +553,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>25999</v>
+        <v>38214</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="12">
@@ -564,10 +564,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>26006</v>
+        <v>38221</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -575,7 +575,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>26013</v>
+        <v>38228</v>
       </c>
       <c r="C13" t="n">
         <v>30</v>
@@ -586,10 +586,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>26020</v>
+        <v>38235</v>
       </c>
       <c r="C14" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -597,10 +597,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>26027</v>
+        <v>38242</v>
       </c>
       <c r="C15" t="n">
-        <v>-6</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="16">
@@ -608,10 +608,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>26034</v>
+        <v>38249</v>
       </c>
       <c r="C16" t="n">
-        <v>36</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="17">
@@ -619,10 +619,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>26041</v>
+        <v>38256</v>
       </c>
       <c r="C17" t="n">
-        <v>-36</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="18">
@@ -630,10 +630,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>26048</v>
+        <v>38263</v>
       </c>
       <c r="C18" t="n">
-        <v>-36</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="19">
@@ -641,10 +641,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>26055</v>
+        <v>38270</v>
       </c>
       <c r="C19" t="n">
-        <v>-36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
@@ -652,10 +652,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>26062</v>
+        <v>38277</v>
       </c>
       <c r="C20" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -663,7 +663,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>26069</v>
+        <v>38284</v>
       </c>
       <c r="C21" t="n">
         <v>-6</v>
@@ -674,10 +674,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>26076</v>
+        <v>38291</v>
       </c>
       <c r="C22" t="n">
-        <v>-6</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="23">
@@ -685,10 +685,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>26083</v>
+        <v>38298</v>
       </c>
       <c r="C23" t="n">
-        <v>-36</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="24">
@@ -696,10 +696,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>26090</v>
+        <v>38305</v>
       </c>
       <c r="C24" t="n">
-        <v>-36</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="25">
@@ -707,10 +707,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>26097</v>
+        <v>38312</v>
       </c>
       <c r="C25" t="n">
-        <v>-6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -718,10 +718,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>26104</v>
+        <v>38319</v>
       </c>
       <c r="C26" t="n">
-        <v>-36</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/technical_analysis1/files/combine_top_10_rows_dataframe.xlsx
+++ b/technical_analysis1/files/combine_top_10_rows_dataframe.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>EURAUD10080_class</t>
+          <t>CHFJPY10080_volume</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CHFJPY10080_class</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>EURGBP10080_volume</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>EURGBP10080_class</t>
         </is>
       </c>
     </row>
@@ -454,10 +469,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>38151</v>
+        <v>34091</v>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>8224</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4115</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +489,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>38158</v>
+        <v>34098</v>
       </c>
       <c r="C3" t="n">
-        <v>-15</v>
+        <v>9885</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-18</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4665</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +509,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>38165</v>
+        <v>34105</v>
       </c>
       <c r="C4" t="n">
-        <v>-8</v>
+        <v>9495</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-12</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4165</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-20</v>
       </c>
     </row>
     <row r="5">
@@ -487,10 +529,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>38172</v>
+        <v>34112</v>
       </c>
       <c r="C5" t="n">
-        <v>-20</v>
+        <v>10335</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4685</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -498,10 +549,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>38179</v>
+        <v>34119</v>
       </c>
       <c r="C6" t="n">
-        <v>-30</v>
+        <v>7314</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-12</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4215</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -509,10 +569,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>38186</v>
+        <v>34126</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>11585</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5075</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-24</v>
       </c>
     </row>
     <row r="8">
@@ -520,10 +589,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>38193</v>
+        <v>34133</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>6794</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-36</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5325</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-24</v>
       </c>
     </row>
     <row r="9">
@@ -531,10 +609,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>38200</v>
+        <v>34140</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>10495</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-18</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5675</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
@@ -542,10 +629,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>38207</v>
+        <v>34147</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>9514</v>
+      </c>
+      <c r="D10" t="n">
+        <v>24</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4765</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-12</v>
       </c>
     </row>
     <row r="11">
@@ -553,10 +649,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>38214</v>
+        <v>34154</v>
       </c>
       <c r="C11" t="n">
-        <v>-25</v>
+        <v>9145</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-24</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2725</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -564,10 +669,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>38221</v>
+        <v>34161</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>9675</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-36</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4305</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -575,10 +689,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>38228</v>
+        <v>34168</v>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>10105</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-12</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5695</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-20</v>
       </c>
     </row>
     <row r="14">
@@ -586,10 +709,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>38235</v>
+        <v>34175</v>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>8515</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-24</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4225</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -597,10 +729,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>38242</v>
+        <v>34182</v>
       </c>
       <c r="C15" t="n">
-        <v>-20</v>
+        <v>8635</v>
+      </c>
+      <c r="D15" t="n">
+        <v>12</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5235</v>
+      </c>
+      <c r="F15" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -608,10 +749,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>38249</v>
+        <v>34189</v>
       </c>
       <c r="C16" t="n">
-        <v>-10</v>
+        <v>6795</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-18</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4965</v>
+      </c>
+      <c r="F16" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -619,10 +769,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>38256</v>
+        <v>34196</v>
       </c>
       <c r="C17" t="n">
-        <v>-8</v>
+        <v>13034</v>
+      </c>
+      <c r="D17" t="n">
+        <v>30</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5835</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-16</v>
       </c>
     </row>
     <row r="18">
@@ -630,10 +789,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>38263</v>
+        <v>34203</v>
       </c>
       <c r="C18" t="n">
-        <v>-25</v>
+        <v>7805</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-24</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5825</v>
+      </c>
+      <c r="F18" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="19">
@@ -641,10 +809,19 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>38270</v>
+        <v>34210</v>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>8714</v>
+      </c>
+      <c r="D19" t="n">
+        <v>24</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5305</v>
+      </c>
+      <c r="F19" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="20">
@@ -652,10 +829,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>38277</v>
+        <v>34217</v>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>8204</v>
+      </c>
+      <c r="D20" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5225</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -663,10 +849,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>38284</v>
+        <v>34224</v>
       </c>
       <c r="C21" t="n">
-        <v>-6</v>
+        <v>9325</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-24</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4495</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -674,10 +869,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>38291</v>
+        <v>34231</v>
       </c>
       <c r="C22" t="n">
-        <v>-16</v>
+        <v>10595</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-12</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5535</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-3</v>
       </c>
     </row>
     <row r="23">
@@ -685,10 +889,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>38298</v>
+        <v>34238</v>
       </c>
       <c r="C23" t="n">
-        <v>-8</v>
+        <v>4423</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-36</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4405</v>
+      </c>
+      <c r="F23" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -696,10 +909,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>38305</v>
+        <v>34245</v>
       </c>
       <c r="C24" t="n">
-        <v>-30</v>
+        <v>8084</v>
+      </c>
+      <c r="D24" t="n">
+        <v>6</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3945</v>
+      </c>
+      <c r="F24" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -707,10 +929,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>38312</v>
+        <v>34252</v>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>5415</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-12</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3575</v>
+      </c>
+      <c r="F25" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -718,10 +949,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>38319</v>
+        <v>34259</v>
       </c>
       <c r="C26" t="n">
-        <v>36</v>
+        <v>7095</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-24</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4705</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-20</v>
       </c>
     </row>
   </sheetData>

--- a/technical_analysis1/files/combine_top_10_rows_dataframe.xlsx
+++ b/technical_analysis1/files/combine_top_10_rows_dataframe.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -445,43 +445,43 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>CHFJPY10080_volume</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>CHFJPY10080_class</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>EURGBP10080_volume</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>EURGBP10080_class</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>EURCAD10080_volume</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>EURCAD10080_class</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>34091</v>
+        <v>36373</v>
       </c>
       <c r="C2" t="n">
-        <v>8224</v>
+        <v>24583</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>4115</v>
+        <v>1463</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>34098</v>
+        <v>36380</v>
       </c>
       <c r="C3" t="n">
-        <v>9885</v>
+        <v>19904</v>
       </c>
       <c r="D3" t="n">
-        <v>-18</v>
+        <v>-9</v>
       </c>
       <c r="E3" t="n">
-        <v>4665</v>
+        <v>2302</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="4">
@@ -509,19 +509,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>34105</v>
+        <v>36387</v>
       </c>
       <c r="C4" t="n">
-        <v>9495</v>
+        <v>23869</v>
       </c>
       <c r="D4" t="n">
-        <v>-12</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>4165</v>
+        <v>1265</v>
       </c>
       <c r="F4" t="n">
-        <v>-20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -529,19 +529,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>34112</v>
+        <v>36394</v>
       </c>
       <c r="C5" t="n">
-        <v>10335</v>
+        <v>23180</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>-8</v>
       </c>
       <c r="E5" t="n">
-        <v>4685</v>
+        <v>1399</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="6">
@@ -549,19 +549,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>34119</v>
+        <v>36401</v>
       </c>
       <c r="C6" t="n">
-        <v>7314</v>
+        <v>23201</v>
       </c>
       <c r="D6" t="n">
-        <v>-12</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>4215</v>
+        <v>1792</v>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -569,19 +569,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>34126</v>
+        <v>36408</v>
       </c>
       <c r="C7" t="n">
-        <v>11585</v>
+        <v>27403</v>
       </c>
       <c r="D7" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1384</v>
+      </c>
+      <c r="F7" t="n">
         <v>-18</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5075</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-24</v>
       </c>
     </row>
     <row r="8">
@@ -589,19 +589,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>34133</v>
+        <v>36415</v>
       </c>
       <c r="C8" t="n">
-        <v>6794</v>
+        <v>30064</v>
       </c>
       <c r="D8" t="n">
-        <v>-36</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>5325</v>
+        <v>1761</v>
       </c>
       <c r="F8" t="n">
-        <v>-24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -609,19 +609,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>34140</v>
+        <v>36422</v>
       </c>
       <c r="C9" t="n">
-        <v>10495</v>
+        <v>25227</v>
       </c>
       <c r="D9" t="n">
-        <v>-18</v>
+        <v>-6</v>
       </c>
       <c r="E9" t="n">
-        <v>5675</v>
+        <v>1009</v>
       </c>
       <c r="F9" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -629,19 +629,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>34147</v>
+        <v>36429</v>
       </c>
       <c r="C10" t="n">
-        <v>9514</v>
+        <v>23179</v>
       </c>
       <c r="D10" t="n">
+        <v>12</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1299</v>
+      </c>
+      <c r="F10" t="n">
         <v>24</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4765</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-12</v>
       </c>
     </row>
     <row r="11">
@@ -649,19 +649,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>34154</v>
+        <v>36436</v>
       </c>
       <c r="C11" t="n">
-        <v>9145</v>
+        <v>24406</v>
       </c>
       <c r="D11" t="n">
-        <v>-24</v>
+        <v>-4</v>
       </c>
       <c r="E11" t="n">
-        <v>2725</v>
+        <v>1316</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="12">
@@ -669,19 +669,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>34161</v>
+        <v>36443</v>
       </c>
       <c r="C12" t="n">
-        <v>9675</v>
+        <v>26292</v>
       </c>
       <c r="D12" t="n">
-        <v>-36</v>
+        <v>16</v>
       </c>
       <c r="E12" t="n">
-        <v>4305</v>
+        <v>1252</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
@@ -689,19 +689,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>34168</v>
+        <v>36450</v>
       </c>
       <c r="C13" t="n">
-        <v>10105</v>
+        <v>26536</v>
       </c>
       <c r="D13" t="n">
-        <v>-12</v>
+        <v>-18</v>
       </c>
       <c r="E13" t="n">
-        <v>5695</v>
+        <v>1277</v>
       </c>
       <c r="F13" t="n">
-        <v>-20</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="14">
@@ -709,19 +709,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>34175</v>
+        <v>36457</v>
       </c>
       <c r="C14" t="n">
-        <v>8515</v>
+        <v>28243</v>
       </c>
       <c r="D14" t="n">
-        <v>-24</v>
+        <v>-15</v>
       </c>
       <c r="E14" t="n">
-        <v>4225</v>
+        <v>2109</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="15">
@@ -729,19 +729,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>34182</v>
+        <v>36464</v>
       </c>
       <c r="C15" t="n">
-        <v>8635</v>
+        <v>27642</v>
       </c>
       <c r="D15" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>5235</v>
+        <v>1734</v>
       </c>
       <c r="F15" t="n">
-        <v>16</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="16">
@@ -749,19 +749,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>34189</v>
+        <v>36471</v>
       </c>
       <c r="C16" t="n">
-        <v>6795</v>
+        <v>25792</v>
       </c>
       <c r="D16" t="n">
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="E16" t="n">
-        <v>4965</v>
+        <v>1052</v>
       </c>
       <c r="F16" t="n">
-        <v>16</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="17">
@@ -769,19 +769,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>34196</v>
+        <v>36478</v>
       </c>
       <c r="C17" t="n">
-        <v>13034</v>
+        <v>25549</v>
       </c>
       <c r="D17" t="n">
-        <v>30</v>
+        <v>-6</v>
       </c>
       <c r="E17" t="n">
-        <v>5835</v>
+        <v>1603</v>
       </c>
       <c r="F17" t="n">
-        <v>-16</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
@@ -789,19 +789,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>34203</v>
+        <v>36485</v>
       </c>
       <c r="C18" t="n">
-        <v>7805</v>
+        <v>27154</v>
       </c>
       <c r="D18" t="n">
-        <v>-24</v>
+        <v>-8</v>
       </c>
       <c r="E18" t="n">
-        <v>5825</v>
+        <v>1239</v>
       </c>
       <c r="F18" t="n">
-        <v>24</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="19">
@@ -809,19 +809,19 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>34210</v>
+        <v>36492</v>
       </c>
       <c r="C19" t="n">
-        <v>8714</v>
+        <v>28594</v>
       </c>
       <c r="D19" t="n">
-        <v>24</v>
+        <v>-9</v>
       </c>
       <c r="E19" t="n">
-        <v>5305</v>
+        <v>2044</v>
       </c>
       <c r="F19" t="n">
-        <v>24</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="20">
@@ -829,19 +829,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>34217</v>
+        <v>36499</v>
       </c>
       <c r="C20" t="n">
-        <v>8204</v>
+        <v>24894</v>
       </c>
       <c r="D20" t="n">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="E20" t="n">
-        <v>5225</v>
+        <v>2272</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -849,19 +849,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>34224</v>
+        <v>36506</v>
       </c>
       <c r="C21" t="n">
-        <v>9325</v>
+        <v>22956</v>
       </c>
       <c r="D21" t="n">
-        <v>-24</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>4495</v>
+        <v>778</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -869,19 +869,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>34231</v>
+        <v>36513</v>
       </c>
       <c r="C22" t="n">
-        <v>10595</v>
+        <v>24820</v>
       </c>
       <c r="D22" t="n">
-        <v>-12</v>
+        <v>-2</v>
       </c>
       <c r="E22" t="n">
-        <v>5535</v>
+        <v>792</v>
       </c>
       <c r="F22" t="n">
-        <v>-3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -889,19 +889,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>34238</v>
+        <v>36527</v>
       </c>
       <c r="C23" t="n">
-        <v>4423</v>
+        <v>25514</v>
       </c>
       <c r="D23" t="n">
-        <v>-36</v>
+        <v>6</v>
       </c>
       <c r="E23" t="n">
-        <v>4405</v>
+        <v>1992</v>
       </c>
       <c r="F23" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -909,19 +909,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>34245</v>
+        <v>36534</v>
       </c>
       <c r="C24" t="n">
-        <v>8084</v>
+        <v>23761</v>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>-16</v>
       </c>
       <c r="E24" t="n">
-        <v>3945</v>
+        <v>1432</v>
       </c>
       <c r="F24" t="n">
-        <v>9</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="25">
@@ -929,19 +929,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>34252</v>
+        <v>36541</v>
       </c>
       <c r="C25" t="n">
-        <v>5415</v>
+        <v>24831</v>
       </c>
       <c r="D25" t="n">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="E25" t="n">
-        <v>3575</v>
+        <v>826</v>
       </c>
       <c r="F25" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -949,19 +949,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>34259</v>
+        <v>36548</v>
       </c>
       <c r="C26" t="n">
-        <v>7095</v>
+        <v>24666</v>
       </c>
       <c r="D26" t="n">
-        <v>-24</v>
+        <v>-9</v>
       </c>
       <c r="E26" t="n">
-        <v>4705</v>
+        <v>1396</v>
       </c>
       <c r="F26" t="n">
-        <v>-20</v>
+        <v>-18</v>
       </c>
     </row>
   </sheetData>

--- a/technical_analysis1/files/combine_top_10_rows_dataframe.xlsx
+++ b/technical_analysis1/files/combine_top_10_rows_dataframe.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,43 +445,59 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>USDJPY10080_volume</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>USDJPY10080_class</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CADCHF10080_volume</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CADCHF10080_class</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>EURGBP10080_volume</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>EURGBP10080_class</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>EURCAD10080_volume</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>EURCAD10080_class</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>36373</v>
+        <v>34105</v>
       </c>
       <c r="C2" t="n">
-        <v>24583</v>
+        <v>10865</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>-12</v>
       </c>
       <c r="E2" t="n">
-        <v>1463</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>-18</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4165</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-20</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +505,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>36380</v>
+        <v>34112</v>
       </c>
       <c r="C3" t="n">
-        <v>19904</v>
+        <v>8345</v>
       </c>
       <c r="D3" t="n">
-        <v>-9</v>
+        <v>-24</v>
       </c>
       <c r="E3" t="n">
-        <v>2302</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>-10</v>
+        <v>-36</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4685</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -509,19 +531,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>36387</v>
+        <v>34119</v>
       </c>
       <c r="C4" t="n">
-        <v>23869</v>
+        <v>9375</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>1265</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4215</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -529,19 +557,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>36394</v>
+        <v>34126</v>
       </c>
       <c r="C5" t="n">
-        <v>23180</v>
+        <v>8365</v>
       </c>
       <c r="D5" t="n">
-        <v>-8</v>
+        <v>-24</v>
       </c>
       <c r="E5" t="n">
-        <v>1399</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>-36</v>
+        <v>12</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5075</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-24</v>
       </c>
     </row>
     <row r="6">
@@ -549,19 +583,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>36401</v>
+        <v>34133</v>
       </c>
       <c r="C6" t="n">
-        <v>23201</v>
+        <v>10605</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E6" t="n">
-        <v>1792</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5325</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-24</v>
       </c>
     </row>
     <row r="7">
@@ -569,19 +609,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>36408</v>
+        <v>34140</v>
       </c>
       <c r="C7" t="n">
-        <v>27403</v>
+        <v>15965</v>
       </c>
       <c r="D7" t="n">
-        <v>-20</v>
+        <v>-12</v>
       </c>
       <c r="E7" t="n">
-        <v>1384</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>-18</v>
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5675</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
@@ -589,19 +635,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>36415</v>
+        <v>34147</v>
       </c>
       <c r="C8" t="n">
-        <v>30064</v>
+        <v>16305</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E8" t="n">
-        <v>1761</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4765</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-12</v>
       </c>
     </row>
     <row r="9">
@@ -609,19 +661,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>36422</v>
+        <v>34154</v>
       </c>
       <c r="C9" t="n">
-        <v>25227</v>
+        <v>15575</v>
       </c>
       <c r="D9" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>1009</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2725</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -629,19 +687,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>36429</v>
+        <v>34161</v>
       </c>
       <c r="C10" t="n">
-        <v>23179</v>
+        <v>11185</v>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>-36</v>
       </c>
       <c r="E10" t="n">
-        <v>1299</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>24</v>
+        <v>-30</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4305</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -649,19 +713,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>36436</v>
+        <v>34168</v>
       </c>
       <c r="C11" t="n">
-        <v>24406</v>
+        <v>12345</v>
       </c>
       <c r="D11" t="n">
-        <v>-4</v>
+        <v>-18</v>
       </c>
       <c r="E11" t="n">
-        <v>1316</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>-10</v>
+        <v>16</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5695</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-20</v>
       </c>
     </row>
     <row r="12">
@@ -669,19 +739,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>36443</v>
+        <v>34175</v>
       </c>
       <c r="C12" t="n">
-        <v>26292</v>
+        <v>12625</v>
       </c>
       <c r="D12" t="n">
-        <v>16</v>
+        <v>-24</v>
       </c>
       <c r="E12" t="n">
-        <v>1252</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>36</v>
+        <v>-4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4225</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -689,19 +765,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>36450</v>
+        <v>34182</v>
       </c>
       <c r="C13" t="n">
-        <v>26536</v>
+        <v>9445</v>
       </c>
       <c r="D13" t="n">
-        <v>-18</v>
+        <v>-6</v>
       </c>
       <c r="E13" t="n">
-        <v>1277</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>-36</v>
+        <v>12</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5235</v>
+      </c>
+      <c r="H13" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -709,19 +791,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>36457</v>
+        <v>34189</v>
       </c>
       <c r="C14" t="n">
-        <v>28243</v>
+        <v>7315</v>
       </c>
       <c r="D14" t="n">
-        <v>-15</v>
+        <v>-24</v>
       </c>
       <c r="E14" t="n">
-        <v>2109</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>-10</v>
+        <v>-2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4965</v>
+      </c>
+      <c r="H14" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -729,19 +817,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>36464</v>
+        <v>34196</v>
       </c>
       <c r="C15" t="n">
-        <v>27642</v>
+        <v>17535</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>1734</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>-10</v>
+        <v>-20</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5835</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-16</v>
       </c>
     </row>
     <row r="16">
@@ -749,19 +843,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>36471</v>
+        <v>34203</v>
       </c>
       <c r="C16" t="n">
-        <v>25792</v>
+        <v>10985</v>
       </c>
       <c r="D16" t="n">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="E16" t="n">
-        <v>1052</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>-20</v>
+        <v>-8</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5825</v>
+      </c>
+      <c r="H16" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -769,19 +869,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>36478</v>
+        <v>34210</v>
       </c>
       <c r="C17" t="n">
-        <v>25549</v>
+        <v>8595</v>
       </c>
       <c r="D17" t="n">
-        <v>-6</v>
+        <v>36</v>
       </c>
       <c r="E17" t="n">
-        <v>1603</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>-1</v>
+        <v>-24</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5305</v>
+      </c>
+      <c r="H17" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -789,19 +895,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>36485</v>
+        <v>34217</v>
       </c>
       <c r="C18" t="n">
-        <v>27154</v>
+        <v>12025</v>
       </c>
       <c r="D18" t="n">
+        <v>12</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" t="n">
         <v>-8</v>
       </c>
-      <c r="E18" t="n">
-        <v>1239</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-12</v>
+      <c r="G18" t="n">
+        <v>5225</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -809,19 +921,25 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>36492</v>
+        <v>34224</v>
       </c>
       <c r="C19" t="n">
-        <v>28594</v>
+        <v>9095</v>
       </c>
       <c r="D19" t="n">
-        <v>-9</v>
+        <v>-18</v>
       </c>
       <c r="E19" t="n">
-        <v>2044</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>-3</v>
+        <v>-18</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4495</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -829,19 +947,25 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>36499</v>
+        <v>34231</v>
       </c>
       <c r="C20" t="n">
-        <v>24894</v>
+        <v>11175</v>
       </c>
       <c r="D20" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>2272</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5535</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-3</v>
       </c>
     </row>
     <row r="21">
@@ -849,19 +973,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>36506</v>
+        <v>34238</v>
       </c>
       <c r="C21" t="n">
-        <v>22956</v>
+        <v>8215</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E21" t="n">
-        <v>778</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>-24</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4405</v>
+      </c>
+      <c r="H21" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -869,18 +999,24 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>36513</v>
+        <v>34245</v>
       </c>
       <c r="C22" t="n">
-        <v>24820</v>
+        <v>7355</v>
       </c>
       <c r="D22" t="n">
-        <v>-2</v>
+        <v>-30</v>
       </c>
       <c r="E22" t="n">
-        <v>792</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3945</v>
+      </c>
+      <c r="H22" t="n">
         <v>9</v>
       </c>
     </row>
@@ -889,19 +1025,25 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>36527</v>
+        <v>34252</v>
       </c>
       <c r="C23" t="n">
-        <v>25514</v>
+        <v>6525</v>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E23" t="n">
-        <v>1992</v>
+        <v>13315</v>
       </c>
       <c r="F23" t="n">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3575</v>
+      </c>
+      <c r="H23" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -909,19 +1051,25 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>36534</v>
+        <v>34259</v>
       </c>
       <c r="C24" t="n">
-        <v>23761</v>
+        <v>7615</v>
       </c>
       <c r="D24" t="n">
-        <v>-16</v>
+        <v>24</v>
       </c>
       <c r="E24" t="n">
-        <v>1432</v>
+        <v>13435</v>
       </c>
       <c r="F24" t="n">
-        <v>-15</v>
+        <v>30</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4705</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-20</v>
       </c>
     </row>
     <row r="25">
@@ -929,19 +1077,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>36541</v>
+        <v>34266</v>
       </c>
       <c r="C25" t="n">
-        <v>24831</v>
+        <v>7765</v>
       </c>
       <c r="D25" t="n">
-        <v>-15</v>
+        <v>12</v>
       </c>
       <c r="E25" t="n">
-        <v>826</v>
+        <v>16385</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>-3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4665</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-9</v>
       </c>
     </row>
     <row r="26">
@@ -949,19 +1103,25 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>36548</v>
+        <v>34273</v>
       </c>
       <c r="C26" t="n">
-        <v>24666</v>
+        <v>7425</v>
       </c>
       <c r="D26" t="n">
-        <v>-9</v>
+        <v>-24</v>
       </c>
       <c r="E26" t="n">
-        <v>1396</v>
+        <v>12015</v>
       </c>
       <c r="F26" t="n">
-        <v>-18</v>
+        <v>36</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3275</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-10</v>
       </c>
     </row>
   </sheetData>

--- a/technical_analysis1/files/combine_top_10_rows_dataframe.xlsx
+++ b/technical_analysis1/files/combine_top_10_rows_dataframe.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -445,34 +445,34 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>USDJPY10080_volume</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>USDJPY10080_class</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>CADCHF10080_volume</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>CADCHF10080_class</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>EURGBP10080_volume</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>EURGBP10080_class</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>GBPJPY10080_volume</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>GBPJPY10080_class</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -482,22 +482,22 @@
         <v>34105</v>
       </c>
       <c r="C2" t="n">
-        <v>10865</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
+        <v>-18</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4165</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G2" t="n">
+        <v>13385</v>
+      </c>
+      <c r="H2" t="n">
         <v>-12</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-18</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4165</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-20</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         <v>34112</v>
       </c>
       <c r="C3" t="n">
-        <v>8345</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>-24</v>
+        <v>-36</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>4685</v>
       </c>
       <c r="F3" t="n">
-        <v>-36</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
-        <v>4685</v>
+        <v>12195</v>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="4">
@@ -534,22 +534,22 @@
         <v>34119</v>
       </c>
       <c r="C4" t="n">
-        <v>9375</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4215</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
-        <v>4215</v>
+        <v>11704</v>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="5">
@@ -560,22 +560,22 @@
         <v>34126</v>
       </c>
       <c r="C5" t="n">
-        <v>8365</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5075</v>
+      </c>
+      <c r="F5" t="n">
         <v>-24</v>
       </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>12</v>
-      </c>
       <c r="G5" t="n">
-        <v>5075</v>
+        <v>15585</v>
       </c>
       <c r="H5" t="n">
-        <v>-24</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="6">
@@ -586,22 +586,22 @@
         <v>34133</v>
       </c>
       <c r="C6" t="n">
-        <v>10605</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
+        <v>36</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5325</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-24</v>
+      </c>
+      <c r="G6" t="n">
+        <v>14925</v>
+      </c>
+      <c r="H6" t="n">
         <v>18</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>36</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5325</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-24</v>
       </c>
     </row>
     <row r="7">
@@ -612,22 +612,22 @@
         <v>34140</v>
       </c>
       <c r="C7" t="n">
-        <v>15965</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>-12</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>5675</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G7" t="n">
-        <v>5675</v>
+        <v>16485</v>
       </c>
       <c r="H7" t="n">
-        <v>-1</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="8">
@@ -638,22 +638,22 @@
         <v>34147</v>
       </c>
       <c r="C8" t="n">
-        <v>16305</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>4765</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="G8" t="n">
-        <v>4765</v>
+        <v>19045</v>
       </c>
       <c r="H8" t="n">
-        <v>-12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>34154</v>
       </c>
       <c r="C9" t="n">
-        <v>15575</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>2725</v>
       </c>
       <c r="F9" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>2725</v>
+        <v>16115</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="10">
@@ -690,22 +690,22 @@
         <v>34161</v>
       </c>
       <c r="C10" t="n">
-        <v>11185</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>-36</v>
+        <v>-30</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4305</v>
       </c>
       <c r="F10" t="n">
-        <v>-30</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>4305</v>
+        <v>14015</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="11">
@@ -716,22 +716,22 @@
         <v>34168</v>
       </c>
       <c r="C11" t="n">
-        <v>12345</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>-18</v>
+        <v>16</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>5695</v>
       </c>
       <c r="F11" t="n">
-        <v>16</v>
+        <v>-20</v>
       </c>
       <c r="G11" t="n">
-        <v>5695</v>
+        <v>19655</v>
       </c>
       <c r="H11" t="n">
-        <v>-20</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="12">
@@ -742,22 +742,22 @@
         <v>34175</v>
       </c>
       <c r="C12" t="n">
-        <v>12625</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>-24</v>
+        <v>-4</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>4225</v>
       </c>
       <c r="F12" t="n">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>4225</v>
+        <v>17145</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="13">
@@ -768,22 +768,22 @@
         <v>34182</v>
       </c>
       <c r="C13" t="n">
-        <v>9445</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>-6</v>
+        <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>5235</v>
       </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G13" t="n">
-        <v>5235</v>
+        <v>11515</v>
       </c>
       <c r="H13" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -794,22 +794,22 @@
         <v>34189</v>
       </c>
       <c r="C14" t="n">
-        <v>7315</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>-24</v>
+        <v>-2</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>4965</v>
       </c>
       <c r="F14" t="n">
-        <v>-2</v>
+        <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>4965</v>
+        <v>13945</v>
       </c>
       <c r="H14" t="n">
-        <v>16</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="15">
@@ -820,22 +820,22 @@
         <v>34196</v>
       </c>
       <c r="C15" t="n">
-        <v>17535</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>18</v>
+        <v>-20</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>5835</v>
       </c>
       <c r="F15" t="n">
-        <v>-20</v>
+        <v>-16</v>
       </c>
       <c r="G15" t="n">
-        <v>5835</v>
+        <v>20725</v>
       </c>
       <c r="H15" t="n">
-        <v>-16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -846,22 +846,22 @@
         <v>34203</v>
       </c>
       <c r="C16" t="n">
-        <v>10985</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5825</v>
+      </c>
+      <c r="F16" t="n">
+        <v>24</v>
+      </c>
+      <c r="G16" t="n">
+        <v>17295</v>
+      </c>
+      <c r="H16" t="n">
         <v>-6</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-8</v>
-      </c>
-      <c r="G16" t="n">
-        <v>5825</v>
-      </c>
-      <c r="H16" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -872,19 +872,19 @@
         <v>34210</v>
       </c>
       <c r="C17" t="n">
-        <v>8595</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>36</v>
+        <v>-24</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>5305</v>
       </c>
       <c r="F17" t="n">
-        <v>-24</v>
+        <v>24</v>
       </c>
       <c r="G17" t="n">
-        <v>5305</v>
+        <v>16565</v>
       </c>
       <c r="H17" t="n">
         <v>24</v>
@@ -898,22 +898,22 @@
         <v>34217</v>
       </c>
       <c r="C18" t="n">
-        <v>12025</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>12</v>
+        <v>-8</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>5225</v>
       </c>
       <c r="F18" t="n">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>5225</v>
+        <v>16245</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -924,22 +924,22 @@
         <v>34224</v>
       </c>
       <c r="C19" t="n">
-        <v>9095</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>-18</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>4495</v>
       </c>
       <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>19375</v>
+      </c>
+      <c r="H19" t="n">
         <v>-18</v>
-      </c>
-      <c r="G19" t="n">
-        <v>4495</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -950,22 +950,22 @@
         <v>34231</v>
       </c>
       <c r="C20" t="n">
-        <v>11175</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
+        <v>30</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5535</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>16225</v>
+      </c>
+      <c r="H20" t="n">
         <v>18</v>
-      </c>
-      <c r="E20" t="n">
-        <v>5</v>
-      </c>
-      <c r="F20" t="n">
-        <v>30</v>
-      </c>
-      <c r="G20" t="n">
-        <v>5535</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-3</v>
       </c>
     </row>
     <row r="21">
@@ -976,22 +976,22 @@
         <v>34238</v>
       </c>
       <c r="C21" t="n">
-        <v>8215</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>12</v>
+        <v>-24</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>4405</v>
       </c>
       <c r="F21" t="n">
-        <v>-24</v>
+        <v>15</v>
       </c>
       <c r="G21" t="n">
-        <v>4405</v>
+        <v>13815</v>
       </c>
       <c r="H21" t="n">
-        <v>15</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="22">
@@ -1002,22 +1002,22 @@
         <v>34245</v>
       </c>
       <c r="C22" t="n">
-        <v>7355</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>-30</v>
+        <v>-1</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>3945</v>
       </c>
       <c r="F22" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>3945</v>
+        <v>13085</v>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -1028,22 +1028,22 @@
         <v>34252</v>
       </c>
       <c r="C23" t="n">
-        <v>6525</v>
+        <v>13315</v>
       </c>
       <c r="D23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E23" t="n">
-        <v>13315</v>
+        <v>3575</v>
       </c>
       <c r="F23" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>3575</v>
+        <v>11465</v>
       </c>
       <c r="H23" t="n">
-        <v>12</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="24">
@@ -1054,22 +1054,22 @@
         <v>34259</v>
       </c>
       <c r="C24" t="n">
-        <v>7615</v>
+        <v>13435</v>
       </c>
       <c r="D24" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E24" t="n">
-        <v>13435</v>
+        <v>4705</v>
       </c>
       <c r="F24" t="n">
-        <v>30</v>
+        <v>-20</v>
       </c>
       <c r="G24" t="n">
-        <v>4705</v>
+        <v>13955</v>
       </c>
       <c r="H24" t="n">
-        <v>-20</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="25">
@@ -1080,22 +1080,22 @@
         <v>34266</v>
       </c>
       <c r="C25" t="n">
-        <v>7765</v>
+        <v>16385</v>
       </c>
       <c r="D25" t="n">
-        <v>12</v>
+        <v>-3</v>
       </c>
       <c r="E25" t="n">
-        <v>16385</v>
+        <v>4665</v>
       </c>
       <c r="F25" t="n">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="G25" t="n">
-        <v>4665</v>
+        <v>14035</v>
       </c>
       <c r="H25" t="n">
-        <v>-9</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="26">
@@ -1106,22 +1106,22 @@
         <v>34273</v>
       </c>
       <c r="C26" t="n">
-        <v>7425</v>
+        <v>12015</v>
       </c>
       <c r="D26" t="n">
+        <v>36</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3275</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-10</v>
+      </c>
+      <c r="G26" t="n">
+        <v>12865</v>
+      </c>
+      <c r="H26" t="n">
         <v>-24</v>
-      </c>
-      <c r="E26" t="n">
-        <v>12015</v>
-      </c>
-      <c r="F26" t="n">
-        <v>36</v>
-      </c>
-      <c r="G26" t="n">
-        <v>3275</v>
-      </c>
-      <c r="H26" t="n">
-        <v>-10</v>
       </c>
     </row>
   </sheetData>

--- a/technical_analysis1/files/combine_top_10_rows_dataframe.xlsx
+++ b/technical_analysis1/files/combine_top_10_rows_dataframe.xlsx
@@ -445,34 +445,34 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>AUDUSD10080_volume</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>AUDUSD10080_class</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>CADCHF10080_volume</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CADCHF10080_class</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>EURGBP10080_volume</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>EURGBP10080_class</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>GBPJPY10080_volume</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>GBPJPY10080_class</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -482,22 +482,22 @@
         <v>34105</v>
       </c>
       <c r="C2" t="n">
+        <v>5145</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-15</v>
+      </c>
+      <c r="E2" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>-18</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>4165</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>-20</v>
-      </c>
-      <c r="G2" t="n">
-        <v>13385</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-12</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         <v>34112</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>5095</v>
       </c>
       <c r="D3" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
         <v>-36</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>4685</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>8</v>
-      </c>
-      <c r="G3" t="n">
-        <v>12195</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-30</v>
       </c>
     </row>
     <row r="4">
@@ -534,22 +534,22 @@
         <v>34119</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>7305</v>
       </c>
       <c r="D4" t="n">
+        <v>-24</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="n">
         <v>20</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>4215</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>9</v>
-      </c>
-      <c r="G4" t="n">
-        <v>11704</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-24</v>
       </c>
     </row>
     <row r="5">
@@ -560,22 +560,22 @@
         <v>34126</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4975</v>
       </c>
       <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
         <v>12</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>5075</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>-24</v>
-      </c>
-      <c r="G5" t="n">
-        <v>15585</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-18</v>
       </c>
     </row>
     <row r="6">
@@ -586,22 +586,22 @@
         <v>34133</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>5995</v>
       </c>
       <c r="D6" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
         <v>36</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>5325</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>-24</v>
-      </c>
-      <c r="G6" t="n">
-        <v>14925</v>
-      </c>
-      <c r="H6" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -612,22 +612,22 @@
         <v>34140</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>6875</v>
       </c>
       <c r="D7" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
         <v>2</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>5675</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>-1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>16485</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-24</v>
       </c>
     </row>
     <row r="8">
@@ -638,22 +638,22 @@
         <v>34147</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>6475</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
       </c>
       <c r="E8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
         <v>4765</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>-12</v>
-      </c>
-      <c r="G8" t="n">
-        <v>19045</v>
-      </c>
-      <c r="H8" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>34154</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>5605</v>
       </c>
       <c r="D9" t="n">
+        <v>24</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
         <v>30</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>2725</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>4</v>
-      </c>
-      <c r="G9" t="n">
-        <v>16115</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-24</v>
       </c>
     </row>
     <row r="10">
@@ -690,22 +690,22 @@
         <v>34161</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>5265</v>
       </c>
       <c r="D10" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="n">
         <v>-30</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>4305</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>14015</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-24</v>
       </c>
     </row>
     <row r="11">
@@ -716,22 +716,22 @@
         <v>34168</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4675</v>
       </c>
       <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="n">
         <v>16</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>5695</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>-20</v>
-      </c>
-      <c r="G11" t="n">
-        <v>19655</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-6</v>
       </c>
     </row>
     <row r="12">
@@ -742,22 +742,22 @@
         <v>34175</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4105</v>
       </c>
       <c r="D12" t="n">
+        <v>12</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
         <v>-4</v>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
         <v>4225</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>2</v>
-      </c>
-      <c r="G12" t="n">
-        <v>17145</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-30</v>
       </c>
     </row>
     <row r="13">
@@ -768,22 +768,22 @@
         <v>34182</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>6095</v>
       </c>
       <c r="D13" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="n">
         <v>12</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
         <v>5235</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>16</v>
-      </c>
-      <c r="G13" t="n">
-        <v>11515</v>
-      </c>
-      <c r="H13" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -794,22 +794,22 @@
         <v>34189</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>5855</v>
       </c>
       <c r="D14" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" t="n">
         <v>-2</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>4965</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>16</v>
-      </c>
-      <c r="G14" t="n">
-        <v>13945</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-30</v>
       </c>
     </row>
     <row r="15">
@@ -820,22 +820,22 @@
         <v>34196</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>6105</v>
       </c>
       <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
         <v>-20</v>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
         <v>5835</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
         <v>-16</v>
-      </c>
-      <c r="G15" t="n">
-        <v>20725</v>
-      </c>
-      <c r="H15" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -846,22 +846,22 @@
         <v>34203</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>5235</v>
       </c>
       <c r="D16" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" t="n">
         <v>-8</v>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
         <v>5825</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
         <v>24</v>
-      </c>
-      <c r="G16" t="n">
-        <v>17295</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-6</v>
       </c>
     </row>
     <row r="17">
@@ -872,19 +872,19 @@
         <v>34210</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>6905</v>
       </c>
       <c r="D17" t="n">
+        <v>-15</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" t="n">
         <v>-24</v>
       </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
         <v>5305</v>
-      </c>
-      <c r="F17" t="n">
-        <v>24</v>
-      </c>
-      <c r="G17" t="n">
-        <v>16565</v>
       </c>
       <c r="H17" t="n">
         <v>24</v>
@@ -898,22 +898,22 @@
         <v>34217</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>7235</v>
       </c>
       <c r="D18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" t="n">
         <v>-8</v>
       </c>
-      <c r="E18" t="n">
+      <c r="G18" t="n">
         <v>5225</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
         <v>2</v>
-      </c>
-      <c r="G18" t="n">
-        <v>16245</v>
-      </c>
-      <c r="H18" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -924,22 +924,22 @@
         <v>34224</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>6535</v>
       </c>
       <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F19" t="n">
         <v>-18</v>
       </c>
-      <c r="E19" t="n">
+      <c r="G19" t="n">
         <v>4495</v>
       </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
         <v>2</v>
-      </c>
-      <c r="G19" t="n">
-        <v>19375</v>
-      </c>
-      <c r="H19" t="n">
-        <v>-18</v>
       </c>
     </row>
     <row r="20">
@@ -950,22 +950,22 @@
         <v>34231</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>5785</v>
       </c>
       <c r="D20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" t="n">
         <v>30</v>
       </c>
-      <c r="E20" t="n">
+      <c r="G20" t="n">
         <v>5535</v>
       </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
         <v>-3</v>
-      </c>
-      <c r="G20" t="n">
-        <v>16225</v>
-      </c>
-      <c r="H20" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -976,22 +976,22 @@
         <v>34238</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>5015</v>
       </c>
       <c r="D21" t="n">
+        <v>-12</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F21" t="n">
         <v>-24</v>
       </c>
-      <c r="E21" t="n">
+      <c r="G21" t="n">
         <v>4405</v>
       </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
         <v>15</v>
-      </c>
-      <c r="G21" t="n">
-        <v>13815</v>
-      </c>
-      <c r="H21" t="n">
-        <v>-18</v>
       </c>
     </row>
     <row r="22">
@@ -1002,22 +1002,22 @@
         <v>34245</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4805</v>
       </c>
       <c r="D22" t="n">
+        <v>12</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5</v>
+      </c>
+      <c r="F22" t="n">
         <v>-1</v>
       </c>
-      <c r="E22" t="n">
+      <c r="G22" t="n">
         <v>3945</v>
       </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
         <v>9</v>
-      </c>
-      <c r="G22" t="n">
-        <v>13085</v>
-      </c>
-      <c r="H22" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -1028,22 +1028,22 @@
         <v>34252</v>
       </c>
       <c r="C23" t="n">
+        <v>5135</v>
+      </c>
+      <c r="D23" t="n">
+        <v>12</v>
+      </c>
+      <c r="E23" t="n">
         <v>13315</v>
       </c>
-      <c r="D23" t="n">
+      <c r="F23" t="n">
         <v>15</v>
       </c>
-      <c r="E23" t="n">
+      <c r="G23" t="n">
         <v>3575</v>
       </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
         <v>12</v>
-      </c>
-      <c r="G23" t="n">
-        <v>11465</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-18</v>
       </c>
     </row>
     <row r="24">
@@ -1054,22 +1054,22 @@
         <v>34259</v>
       </c>
       <c r="C24" t="n">
+        <v>4005</v>
+      </c>
+      <c r="D24" t="n">
+        <v>16</v>
+      </c>
+      <c r="E24" t="n">
         <v>13435</v>
       </c>
-      <c r="D24" t="n">
+      <c r="F24" t="n">
         <v>30</v>
       </c>
-      <c r="E24" t="n">
+      <c r="G24" t="n">
         <v>4705</v>
       </c>
-      <c r="F24" t="n">
+      <c r="H24" t="n">
         <v>-20</v>
-      </c>
-      <c r="G24" t="n">
-        <v>13955</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-30</v>
       </c>
     </row>
     <row r="25">
@@ -1080,22 +1080,22 @@
         <v>34266</v>
       </c>
       <c r="C25" t="n">
+        <v>4545</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E25" t="n">
         <v>16385</v>
       </c>
-      <c r="D25" t="n">
+      <c r="F25" t="n">
         <v>-3</v>
       </c>
-      <c r="E25" t="n">
+      <c r="G25" t="n">
         <v>4665</v>
       </c>
-      <c r="F25" t="n">
+      <c r="H25" t="n">
         <v>-9</v>
-      </c>
-      <c r="G25" t="n">
-        <v>14035</v>
-      </c>
-      <c r="H25" t="n">
-        <v>-12</v>
       </c>
     </row>
     <row r="26">
@@ -1106,22 +1106,22 @@
         <v>34273</v>
       </c>
       <c r="C26" t="n">
+        <v>3755</v>
+      </c>
+      <c r="D26" t="n">
+        <v>24</v>
+      </c>
+      <c r="E26" t="n">
         <v>12015</v>
       </c>
-      <c r="D26" t="n">
+      <c r="F26" t="n">
         <v>36</v>
       </c>
-      <c r="E26" t="n">
+      <c r="G26" t="n">
         <v>3275</v>
       </c>
-      <c r="F26" t="n">
+      <c r="H26" t="n">
         <v>-10</v>
-      </c>
-      <c r="G26" t="n">
-        <v>12865</v>
-      </c>
-      <c r="H26" t="n">
-        <v>-24</v>
       </c>
     </row>
   </sheetData>

--- a/technical_analysis1/files/combine_top_10_rows_dataframe.xlsx
+++ b/technical_analysis1/files/combine_top_10_rows_dataframe.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,32 +445,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AUDUSD10080_volume</t>
+          <t>USDCHF1440_volume</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>AUDUSD10080_class</t>
+          <t>USDCHF1440_class</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>CADCHF10080_volume</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CADCHF10080_class</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>EURGBP10080_volume</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>EURGBP10080_class</t>
+          <t>USDCHF1440_day</t>
         </is>
       </c>
     </row>
@@ -479,25 +464,18 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>34105</v>
+        <v>31779</v>
       </c>
       <c r="C2" t="n">
-        <v>5145</v>
+        <v>1401</v>
       </c>
       <c r="D2" t="n">
-        <v>-15</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-18</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4165</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-20</v>
+        <v>12</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -505,25 +483,18 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>34112</v>
+        <v>31782</v>
       </c>
       <c r="C3" t="n">
-        <v>5095</v>
+        <v>3301</v>
       </c>
       <c r="D3" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-36</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4685</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -531,25 +502,18 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>34119</v>
+        <v>31783</v>
       </c>
       <c r="C4" t="n">
-        <v>7305</v>
+        <v>2251</v>
       </c>
       <c r="D4" t="n">
-        <v>-24</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4215</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
+        <v>-30</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -557,25 +521,18 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>34126</v>
+        <v>31784</v>
       </c>
       <c r="C5" t="n">
-        <v>4975</v>
+        <v>3101</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>12</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5075</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-24</v>
+        <v>16</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -583,25 +540,18 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>34133</v>
+        <v>31785</v>
       </c>
       <c r="C6" t="n">
-        <v>5995</v>
+        <v>3701</v>
       </c>
       <c r="D6" t="n">
-        <v>-8</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>36</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5325</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-24</v>
+        <v>-12</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -609,25 +559,18 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>34140</v>
+        <v>31786</v>
       </c>
       <c r="C7" t="n">
-        <v>6875</v>
+        <v>3151</v>
       </c>
       <c r="D7" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5675</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-1</v>
+        <v>4</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -635,25 +578,18 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>34147</v>
+        <v>31789</v>
       </c>
       <c r="C8" t="n">
-        <v>6475</v>
+        <v>5301</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4765</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-12</v>
+        <v>-15</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -661,25 +597,18 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>34154</v>
+        <v>31790</v>
       </c>
       <c r="C9" t="n">
-        <v>5605</v>
+        <v>3551</v>
       </c>
       <c r="D9" t="n">
-        <v>24</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5</v>
-      </c>
-      <c r="F9" t="n">
-        <v>30</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2725</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
+        <v>-16</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -687,25 +616,18 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>34161</v>
+        <v>31791</v>
       </c>
       <c r="C10" t="n">
-        <v>5265</v>
+        <v>5801</v>
       </c>
       <c r="D10" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5</v>
-      </c>
-      <c r="F10" t="n">
         <v>-30</v>
       </c>
-      <c r="G10" t="n">
-        <v>4305</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -713,25 +635,18 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>34168</v>
+        <v>31792</v>
       </c>
       <c r="C11" t="n">
-        <v>4675</v>
+        <v>4701</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>16</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5695</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-20</v>
+        <v>12</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -739,25 +654,18 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>34175</v>
+        <v>31793</v>
       </c>
       <c r="C12" t="n">
-        <v>4105</v>
+        <v>3901</v>
       </c>
       <c r="D12" t="n">
-        <v>12</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-4</v>
-      </c>
-      <c r="G12" t="n">
-        <v>4225</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -765,25 +673,18 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>34182</v>
+        <v>31796</v>
       </c>
       <c r="C13" t="n">
-        <v>6095</v>
+        <v>4301</v>
       </c>
       <c r="D13" t="n">
-        <v>-9</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>12</v>
-      </c>
-      <c r="G13" t="n">
-        <v>5235</v>
-      </c>
-      <c r="H13" t="n">
-        <v>16</v>
+        <v>-24</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -791,25 +692,18 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>34189</v>
+        <v>31797</v>
       </c>
       <c r="C14" t="n">
-        <v>5855</v>
+        <v>3601</v>
       </c>
       <c r="D14" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-2</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4965</v>
-      </c>
-      <c r="H14" t="n">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -817,25 +711,18 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>34196</v>
+        <v>31798</v>
       </c>
       <c r="C15" t="n">
-        <v>6105</v>
+        <v>3701</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-20</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5835</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-16</v>
+        <v>9</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -843,25 +730,18 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>34203</v>
+        <v>31799</v>
       </c>
       <c r="C16" t="n">
-        <v>5235</v>
+        <v>4951</v>
       </c>
       <c r="D16" t="n">
         <v>-20</v>
       </c>
-      <c r="E16" t="n">
-        <v>5</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-8</v>
-      </c>
-      <c r="G16" t="n">
-        <v>5825</v>
-      </c>
-      <c r="H16" t="n">
-        <v>24</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -869,25 +749,18 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>34210</v>
+        <v>31800</v>
       </c>
       <c r="C17" t="n">
-        <v>6905</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>-15</v>
-      </c>
-      <c r="E17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-24</v>
-      </c>
-      <c r="G17" t="n">
-        <v>5305</v>
-      </c>
-      <c r="H17" t="n">
-        <v>24</v>
+        <v>-30</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -895,25 +768,18 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>34217</v>
+        <v>31803</v>
       </c>
       <c r="C18" t="n">
-        <v>7235</v>
+        <v>3051</v>
       </c>
       <c r="D18" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>5</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-8</v>
-      </c>
-      <c r="G18" t="n">
-        <v>5225</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -921,25 +787,18 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>34224</v>
+        <v>31804</v>
       </c>
       <c r="C19" t="n">
-        <v>6535</v>
+        <v>3351</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-18</v>
-      </c>
-      <c r="G19" t="n">
-        <v>4495</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
+        <v>-25</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -947,25 +806,18 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>34231</v>
+        <v>31805</v>
       </c>
       <c r="C20" t="n">
-        <v>5785</v>
+        <v>4601</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
-      </c>
-      <c r="E20" t="n">
-        <v>5</v>
-      </c>
-      <c r="F20" t="n">
-        <v>30</v>
-      </c>
-      <c r="G20" t="n">
-        <v>5535</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-3</v>
+        <v>-20</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -973,25 +825,18 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>34238</v>
+        <v>31806</v>
       </c>
       <c r="C21" t="n">
-        <v>5015</v>
+        <v>2351</v>
       </c>
       <c r="D21" t="n">
-        <v>-12</v>
-      </c>
-      <c r="E21" t="n">
-        <v>5</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-24</v>
-      </c>
-      <c r="G21" t="n">
-        <v>4405</v>
-      </c>
-      <c r="H21" t="n">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -999,25 +844,18 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>34245</v>
+        <v>31807</v>
       </c>
       <c r="C22" t="n">
-        <v>4805</v>
+        <v>8101</v>
       </c>
       <c r="D22" t="n">
-        <v>12</v>
-      </c>
-      <c r="E22" t="n">
-        <v>5</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3945</v>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1025,25 +863,18 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>34252</v>
+        <v>31810</v>
       </c>
       <c r="C23" t="n">
-        <v>5135</v>
+        <v>3001</v>
       </c>
       <c r="D23" t="n">
-        <v>12</v>
-      </c>
-      <c r="E23" t="n">
-        <v>13315</v>
-      </c>
-      <c r="F23" t="n">
-        <v>15</v>
-      </c>
-      <c r="G23" t="n">
-        <v>3575</v>
-      </c>
-      <c r="H23" t="n">
-        <v>12</v>
+        <v>-30</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1051,25 +882,18 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>34259</v>
+        <v>31811</v>
       </c>
       <c r="C24" t="n">
-        <v>4005</v>
+        <v>3401</v>
       </c>
       <c r="D24" t="n">
-        <v>16</v>
-      </c>
-      <c r="E24" t="n">
-        <v>13435</v>
-      </c>
-      <c r="F24" t="n">
-        <v>30</v>
-      </c>
-      <c r="G24" t="n">
-        <v>4705</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-20</v>
+        <v>-18</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1077,25 +901,18 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>34266</v>
+        <v>31812</v>
       </c>
       <c r="C25" t="n">
-        <v>4545</v>
+        <v>3251</v>
       </c>
       <c r="D25" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E25" t="n">
-        <v>16385</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-3</v>
-      </c>
-      <c r="G25" t="n">
-        <v>4665</v>
-      </c>
-      <c r="H25" t="n">
-        <v>-9</v>
+        <v>12</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1103,25 +920,18 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>34273</v>
+        <v>31813</v>
       </c>
       <c r="C26" t="n">
-        <v>3755</v>
+        <v>3551</v>
       </c>
       <c r="D26" t="n">
-        <v>24</v>
-      </c>
-      <c r="E26" t="n">
-        <v>12015</v>
-      </c>
-      <c r="F26" t="n">
-        <v>36</v>
-      </c>
-      <c r="G26" t="n">
-        <v>3275</v>
-      </c>
-      <c r="H26" t="n">
-        <v>-10</v>
+        <v>12</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/technical_analysis1/files/combine_top_10_rows_dataframe.xlsx
+++ b/technical_analysis1/files/combine_top_10_rows_dataframe.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -445,17 +445,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>USDCHF1440_volume</t>
+          <t>GBPUSD1440_volume</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>USDCHF1440_class</t>
+          <t>GBPUSD1440_class</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>USDCHF1440_day</t>
+          <t>GBPUSD1440_day</t>
         </is>
       </c>
     </row>
@@ -464,17 +464,17 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>31779</v>
+        <v>34101</v>
       </c>
       <c r="C2" t="n">
-        <v>1401</v>
+        <v>2781</v>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>-4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -483,17 +483,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>31782</v>
+        <v>34102</v>
       </c>
       <c r="C3" t="n">
-        <v>3301</v>
+        <v>2571</v>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -502,17 +502,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>31783</v>
+        <v>34103</v>
       </c>
       <c r="C4" t="n">
-        <v>2251</v>
+        <v>2711</v>
       </c>
       <c r="D4" t="n">
-        <v>-30</v>
+        <v>16</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -521,17 +521,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>31784</v>
+        <v>34106</v>
       </c>
       <c r="C5" t="n">
-        <v>3101</v>
+        <v>2921</v>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -540,17 +540,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>31785</v>
+        <v>34107</v>
       </c>
       <c r="C6" t="n">
-        <v>3701</v>
+        <v>2711</v>
       </c>
       <c r="D6" t="n">
-        <v>-12</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -559,17 +559,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>31786</v>
+        <v>34108</v>
       </c>
       <c r="C7" t="n">
-        <v>3151</v>
+        <v>2261</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -578,17 +578,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>31789</v>
+        <v>34109</v>
       </c>
       <c r="C8" t="n">
-        <v>5301</v>
+        <v>3001</v>
       </c>
       <c r="D8" t="n">
-        <v>-15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -597,17 +597,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>31790</v>
+        <v>34110</v>
       </c>
       <c r="C9" t="n">
-        <v>3551</v>
+        <v>2811</v>
       </c>
       <c r="D9" t="n">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>31791</v>
+        <v>34113</v>
       </c>
       <c r="C10" t="n">
-        <v>5801</v>
+        <v>2871</v>
       </c>
       <c r="D10" t="n">
-        <v>-30</v>
+        <v>-6</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -635,17 +635,17 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>31792</v>
+        <v>34114</v>
       </c>
       <c r="C11" t="n">
-        <v>4701</v>
+        <v>2151</v>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -654,17 +654,17 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>31793</v>
+        <v>34115</v>
       </c>
       <c r="C12" t="n">
-        <v>3901</v>
+        <v>1381</v>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -673,17 +673,17 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>31796</v>
+        <v>34116</v>
       </c>
       <c r="C13" t="n">
-        <v>4301</v>
+        <v>2831</v>
       </c>
       <c r="D13" t="n">
-        <v>-24</v>
+        <v>20</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -692,17 +692,17 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>31797</v>
+        <v>34117</v>
       </c>
       <c r="C14" t="n">
-        <v>3601</v>
+        <v>2871</v>
       </c>
       <c r="D14" t="n">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -711,17 +711,17 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>31798</v>
+        <v>34120</v>
       </c>
       <c r="C15" t="n">
-        <v>3701</v>
+        <v>1351</v>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -730,17 +730,17 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>31799</v>
+        <v>34121</v>
       </c>
       <c r="C16" t="n">
-        <v>4951</v>
+        <v>3621</v>
       </c>
       <c r="D16" t="n">
-        <v>-20</v>
+        <v>-9</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -749,17 +749,17 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>31800</v>
+        <v>34122</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2481</v>
       </c>
       <c r="D17" t="n">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -768,17 +768,17 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>31803</v>
+        <v>34123</v>
       </c>
       <c r="C18" t="n">
-        <v>3051</v>
+        <v>1641</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -787,17 +787,17 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>31804</v>
+        <v>34124</v>
       </c>
       <c r="C19" t="n">
-        <v>3351</v>
+        <v>4851</v>
       </c>
       <c r="D19" t="n">
-        <v>-25</v>
+        <v>-36</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>31805</v>
+        <v>34127</v>
       </c>
       <c r="C20" t="n">
-        <v>4601</v>
+        <v>2111</v>
       </c>
       <c r="D20" t="n">
-        <v>-20</v>
+        <v>30</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -825,17 +825,17 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>31806</v>
+        <v>34128</v>
       </c>
       <c r="C21" t="n">
-        <v>2351</v>
+        <v>2121</v>
       </c>
       <c r="D21" t="n">
-        <v>12</v>
+        <v>-15</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>31807</v>
+        <v>34129</v>
       </c>
       <c r="C22" t="n">
-        <v>8101</v>
+        <v>3591</v>
       </c>
       <c r="D22" t="n">
-        <v>24</v>
+        <v>-6</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -863,17 +863,17 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>31810</v>
+        <v>34130</v>
       </c>
       <c r="C23" t="n">
-        <v>3001</v>
+        <v>3421</v>
       </c>
       <c r="D23" t="n">
-        <v>-30</v>
+        <v>15</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -882,17 +882,17 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>31811</v>
+        <v>34131</v>
       </c>
       <c r="C24" t="n">
-        <v>3401</v>
+        <v>3621</v>
       </c>
       <c r="D24" t="n">
-        <v>-18</v>
+        <v>-3</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -901,17 +901,17 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>31812</v>
+        <v>34134</v>
       </c>
       <c r="C25" t="n">
-        <v>3251</v>
+        <v>1851</v>
       </c>
       <c r="D25" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -920,17 +920,17 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>31813</v>
+        <v>34135</v>
       </c>
       <c r="C26" t="n">
-        <v>3551</v>
+        <v>3201</v>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>-8</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/technical_analysis1/files/combine_top_10_rows_dataframe.xlsx
+++ b/technical_analysis1/files/combine_top_10_rows_dataframe.xlsx
@@ -445,17 +445,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>GBPUSD1440_volume</t>
+          <t>USDCHF1440_volume</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>GBPUSD1440_class</t>
+          <t>USDCHF1440_class</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>GBPUSD1440_day</t>
+          <t>USDCHF1440_day</t>
         </is>
       </c>
     </row>
@@ -464,17 +464,17 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>34101</v>
+        <v>31779</v>
       </c>
       <c r="C2" t="n">
-        <v>2781</v>
+        <v>1401</v>
       </c>
       <c r="D2" t="n">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -483,17 +483,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>34102</v>
+        <v>31782</v>
       </c>
       <c r="C3" t="n">
-        <v>2571</v>
+        <v>3301</v>
       </c>
       <c r="D3" t="n">
-        <v>-16</v>
+        <v>2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -502,17 +502,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>34103</v>
+        <v>31783</v>
       </c>
       <c r="C4" t="n">
-        <v>2711</v>
+        <v>2251</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -521,17 +521,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>34106</v>
+        <v>31784</v>
       </c>
       <c r="C5" t="n">
-        <v>2921</v>
+        <v>3101</v>
       </c>
       <c r="D5" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -540,17 +540,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>34107</v>
+        <v>31785</v>
       </c>
       <c r="C6" t="n">
-        <v>2711</v>
+        <v>3701</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -559,17 +559,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>34108</v>
+        <v>31786</v>
       </c>
       <c r="C7" t="n">
-        <v>2261</v>
+        <v>3151</v>
       </c>
       <c r="D7" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -578,17 +578,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>34109</v>
+        <v>31789</v>
       </c>
       <c r="C8" t="n">
-        <v>3001</v>
+        <v>5301</v>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -597,17 +597,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>34110</v>
+        <v>31790</v>
       </c>
       <c r="C9" t="n">
-        <v>2811</v>
+        <v>3551</v>
       </c>
       <c r="D9" t="n">
-        <v>-12</v>
+        <v>5</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>34113</v>
+        <v>31791</v>
       </c>
       <c r="C10" t="n">
-        <v>2871</v>
+        <v>5801</v>
       </c>
       <c r="D10" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -635,17 +635,17 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>34114</v>
+        <v>31792</v>
       </c>
       <c r="C11" t="n">
-        <v>2151</v>
+        <v>4701</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -654,17 +654,17 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>34115</v>
+        <v>31793</v>
       </c>
       <c r="C12" t="n">
-        <v>1381</v>
+        <v>3901</v>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -673,17 +673,17 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>34116</v>
+        <v>31796</v>
       </c>
       <c r="C13" t="n">
-        <v>2831</v>
+        <v>4301</v>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -692,17 +692,17 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>34117</v>
+        <v>31797</v>
       </c>
       <c r="C14" t="n">
-        <v>2871</v>
+        <v>3601</v>
       </c>
       <c r="D14" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -711,17 +711,17 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>34120</v>
+        <v>31798</v>
       </c>
       <c r="C15" t="n">
-        <v>1351</v>
+        <v>3701</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -730,17 +730,17 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>34121</v>
+        <v>31799</v>
       </c>
       <c r="C16" t="n">
-        <v>3621</v>
+        <v>4951</v>
       </c>
       <c r="D16" t="n">
-        <v>-9</v>
+        <v>6</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -749,17 +749,17 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>34122</v>
+        <v>31800</v>
       </c>
       <c r="C17" t="n">
-        <v>2481</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>-20</v>
+        <v>6</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -768,17 +768,17 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>34123</v>
+        <v>31803</v>
       </c>
       <c r="C18" t="n">
-        <v>1641</v>
+        <v>3051</v>
       </c>
       <c r="D18" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -787,17 +787,17 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>34124</v>
+        <v>31804</v>
       </c>
       <c r="C19" t="n">
-        <v>4851</v>
+        <v>3351</v>
       </c>
       <c r="D19" t="n">
-        <v>-36</v>
+        <v>6</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>34127</v>
+        <v>31805</v>
       </c>
       <c r="C20" t="n">
-        <v>2111</v>
+        <v>4601</v>
       </c>
       <c r="D20" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -825,17 +825,17 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>34128</v>
+        <v>31806</v>
       </c>
       <c r="C21" t="n">
-        <v>2121</v>
+        <v>2351</v>
       </c>
       <c r="D21" t="n">
-        <v>-15</v>
+        <v>2</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>34129</v>
+        <v>31807</v>
       </c>
       <c r="C22" t="n">
-        <v>3591</v>
+        <v>8101</v>
       </c>
       <c r="D22" t="n">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -863,17 +863,17 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>34130</v>
+        <v>31810</v>
       </c>
       <c r="C23" t="n">
-        <v>3421</v>
+        <v>3001</v>
       </c>
       <c r="D23" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -882,17 +882,17 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>34131</v>
+        <v>31811</v>
       </c>
       <c r="C24" t="n">
-        <v>3621</v>
+        <v>3401</v>
       </c>
       <c r="D24" t="n">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -901,17 +901,17 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>34134</v>
+        <v>31812</v>
       </c>
       <c r="C25" t="n">
-        <v>1851</v>
+        <v>3251</v>
       </c>
       <c r="D25" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -920,17 +920,17 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>34135</v>
+        <v>31813</v>
       </c>
       <c r="C26" t="n">
-        <v>3201</v>
+        <v>3551</v>
       </c>
       <c r="D26" t="n">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
